--- a/100 programming challenges.xlsx
+++ b/100 programming challenges.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mali\Desktop\Codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mali\Desktop\Codes\C#\Beginner\FirstStepsCSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Name Generator</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>enigma simulator with a configuration file (+decypt messages without known settings)</t>
+  </si>
+  <si>
+    <t>FourWay Calculator</t>
   </si>
 </sst>
 </file>
@@ -690,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,496 +711,501 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
     </row>

--- a/100 programming challenges.xlsx
+++ b/100 programming challenges.xlsx
@@ -696,7 +696,7 @@
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A101" sqref="A1:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +705,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/100 programming challenges.xlsx
+++ b/100 programming challenges.xlsx
@@ -390,12 +390,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -405,11 +420,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="İyi" xfId="1" builtinId="26"/>
@@ -696,7 +712,7 @@
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A101" sqref="A1:A101"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,27 +746,27 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -760,7 +776,7 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -790,7 +806,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -820,7 +836,7 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
